--- a/test-output/TestResults.xlsx
+++ b/test-output/TestResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="21">
   <si>
     <t>Test Name</t>
   </si>
@@ -29,7 +29,7 @@
     <t>PASS</t>
   </si>
   <si>
-    <t>Mon May 05 11:59:09 GMT+03:00 2025</t>
+    <t>Mon May 05 17:04:00 GMT+03:00 2025</t>
   </si>
   <si>
     <t>checkTheDefaultCurrency</t>
@@ -41,7 +41,7 @@
     <t>checkQitafLogo</t>
   </si>
   <si>
-    <t>Mon May 05 11:59:14 GMT+03:00 2025</t>
+    <t>Mon May 05 17:04:05 GMT+03:00 2025</t>
   </si>
   <si>
     <t>checkHotelsTabNotDefault</t>
@@ -56,19 +56,16 @@
     <t>chooseRandomLanguage</t>
   </si>
   <si>
-    <t>Mon May 05 11:59:17 GMT+03:00 2025</t>
-  </si>
-  <si>
     <t>staysTab</t>
   </si>
   <si>
-    <t>Mon May 05 11:59:19 GMT+03:00 2025</t>
+    <t>Mon May 05 17:04:07 GMT+03:00 2025</t>
   </si>
   <si>
     <t>stayLocation</t>
   </si>
   <si>
-    <t>Mon May 05 11:59:21 GMT+03:00 2025</t>
+    <t>Mon May 05 17:04:09 GMT+03:00 2025</t>
   </si>
   <si>
     <t>selectRandomRoom_And_GuestOptions</t>
@@ -77,7 +74,7 @@
     <t>searchHotelsResultsPage</t>
   </si>
   <si>
-    <t>Mon May 05 11:59:33 GMT+03:00 2025</t>
+    <t>Mon May 05 17:04:55 GMT+03:00 2025</t>
   </si>
 </sst>
 </file>
@@ -224,51 +221,51 @@
         <v>4</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s" s="0">
         <v>15</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s" s="0">
-        <v>16</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s" s="0">
         <v>17</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s" s="0">
         <v>4</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s" s="0">
         <v>20</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
